--- a/BackTest/2020-01-23 BackTest BSV.xlsx
+++ b/BackTest/2020-01-23 BackTest BSV.xlsx
@@ -2167,7 +2167,7 @@
         <v>523.9284858199999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>511.1435858199999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>517.1768858199999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>478.21348582</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>500.79138582</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -5170,17 +5170,11 @@
         <v>407.2321374600002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>354000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5209,17 +5203,11 @@
         <v>380.6308237800002</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>354500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5474,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5511,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5548,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5585,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5659,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5696,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5733,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5807,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5844,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5955,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6029,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6140,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6177,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6214,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6288,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6362,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6399,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6436,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6510,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6547,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6584,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6658,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6769,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6806,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6843,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6876,13 +6688,15 @@
         <v>159.1696149000002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>356000</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6913,9 +6727,11 @@
         <v>-25.05968509999977</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>356300</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6950,9 +6766,11 @@
         <v>-123.3616850999998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>352200</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6987,9 +6805,11 @@
         <v>-123.0716850999998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>350300</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7024,9 +6844,11 @@
         <v>-157.6172850999998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>352900</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7061,9 +6883,11 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>351200</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7098,9 +6922,11 @@
         <v>-109.6439850999998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>352900</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7135,9 +6961,11 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>352900</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7172,9 +7000,11 @@
         <v>-115.6562121699998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>352700</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7209,9 +7039,11 @@
         <v>-123.4567392399998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>352700</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7597,9 +7429,11 @@
         <v>46.2387049400002</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>352700</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7673,9 +7507,11 @@
         <v>59.4005049400002</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>351900</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -7710,9 +7546,11 @@
         <v>72.64370494000021</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>351900</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -7747,9 +7585,11 @@
         <v>139.4334194000002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>353600</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -7858,16 +7698,18 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
       <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -7893,11 +7735,15 @@
         <v>412.5269605600002</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7926,11 +7772,15 @@
         <v>406.7791095000002</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7963,7 +7813,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7996,7 +7850,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8029,7 +7887,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7920,15 @@
         <v>481.6670455200002</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8091,11 +7957,15 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8124,11 +7994,15 @@
         <v>499.3116455200002</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +8031,15 @@
         <v>460.4055455200002</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8190,11 +8068,15 @@
         <v>358.5483455200002</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8227,7 +8109,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8260,7 +8146,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8293,7 +8183,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8326,7 +8220,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8359,7 +8257,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8392,7 +8294,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8425,7 +8331,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8458,7 +8368,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8491,7 +8405,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8524,7 +8442,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8557,7 +8479,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8590,7 +8516,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8623,7 +8553,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8586,15 @@
         <v>436.0043455200004</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8685,11 +8623,15 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8718,11 +8660,15 @@
         <v>462.3371455200004</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8751,11 +8697,15 @@
         <v>478.4371455200004</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8734,15 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8817,11 +8771,17 @@
         <v>478.4322455200004</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>360800</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8850,11 +8810,17 @@
         <v>471.6373455200004</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>360800</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +8849,17 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>360100</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8916,11 +8888,17 @@
         <v>510.2471455200004</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>361500</v>
+      </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8949,11 +8927,17 @@
         <v>481.1488455200004</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>361500</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8982,11 +8966,17 @@
         <v>548.5682455200003</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>360800</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +9005,17 @@
         <v>547.5682455200003</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>361400</v>
+      </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9048,11 +9044,17 @@
         <v>547.5696455200003</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>360800</v>
+      </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9081,11 +9083,17 @@
         <v>542.9739455200004</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>361300</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +9122,17 @@
         <v>542.9816454900003</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>360600</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9147,11 +9161,17 @@
         <v>545.5157858600004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>361300</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +9200,17 @@
         <v>644.6154319700004</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>361400</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9213,11 +9239,17 @@
         <v>644.6154319700004</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>362300</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9246,11 +9278,17 @@
         <v>638.9041319700003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>362300</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9283,7 +9321,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9316,7 +9358,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9345,11 +9391,17 @@
         <v>583.3101327700003</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>361000</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9382,7 +9434,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9415,7 +9471,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9448,7 +9508,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9481,7 +9545,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9514,7 +9582,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9547,7 +9619,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9580,7 +9656,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9613,7 +9693,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9646,7 +9730,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9679,7 +9767,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +9804,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9745,7 +9841,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9778,7 +9878,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9811,7 +9915,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9844,7 +9952,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +9989,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9910,7 +10026,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10063,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9976,7 +10100,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10009,7 +10137,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10042,7 +10174,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10075,7 +10211,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10108,7 +10248,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10141,7 +10285,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +10322,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10207,7 +10359,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10396,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10273,7 +10433,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10306,7 +10470,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10339,7 +10507,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10544,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10405,7 +10581,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10438,7 +10618,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10471,7 +10655,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10504,7 +10692,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10537,7 +10729,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10570,7 +10766,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10603,7 +10803,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10636,7 +10840,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10669,7 +10877,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10702,7 +10914,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10735,7 +10951,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10768,7 +10988,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10801,7 +11025,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10834,7 +11062,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10867,7 +11099,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10900,7 +11136,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10933,7 +11173,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10966,7 +11210,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10999,7 +11247,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11032,7 +11284,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11065,7 +11321,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +11358,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11131,7 +11395,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11164,7 +11432,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11197,7 +11469,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11230,7 +11506,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11263,7 +11543,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11296,7 +11580,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11329,7 +11617,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11362,7 +11654,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11395,7 +11691,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11428,7 +11728,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11461,7 +11765,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11494,7 +11802,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +11835,17 @@
         <v>482.3204459800002</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>360200</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11560,7 +11878,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11593,7 +11915,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11626,7 +11952,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11659,7 +11989,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11688,11 +12022,17 @@
         <v>347.8356459800002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>359000</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +12061,17 @@
         <v>227.1263459800002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>358200</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +12100,17 @@
         <v>183.8248459800002</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>356600</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11787,11 +12139,17 @@
         <v>195.8496459800002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>356300</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11820,11 +12178,17 @@
         <v>187.5240459800002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>356500</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11853,11 +12217,17 @@
         <v>211.6340459800002</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>356100</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11886,11 +12256,17 @@
         <v>193.7975459800002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>358100</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11919,11 +12295,17 @@
         <v>212.4072459800002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>357200</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11952,11 +12334,17 @@
         <v>204.5125459800002</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>358100</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11985,11 +12373,17 @@
         <v>128.2590459800002</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>357300</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12018,11 +12412,17 @@
         <v>149.9617459800002</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>357100</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12051,11 +12451,17 @@
         <v>95.24504598000021</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>358000</v>
+      </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +12490,17 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>357200</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12117,11 +12529,17 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>357100</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12150,11 +12568,17 @@
         <v>84.76124598000021</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>357100</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12183,11 +12607,17 @@
         <v>104.4858459800002</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>357100</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +12646,17 @@
         <v>118.1145459800002</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>357900</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12249,11 +12685,17 @@
         <v>130.3591459800002</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>358100</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12282,11 +12724,17 @@
         <v>122.5351459800002</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>359200</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +12763,17 @@
         <v>122.5351459800002</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>358000</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12348,11 +12802,17 @@
         <v>124.3835459800002</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>358000</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12381,11 +12841,17 @@
         <v>112.1816459800002</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>358500</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12414,11 +12880,17 @@
         <v>119.3877459800002</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>358000</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12447,11 +12919,17 @@
         <v>67.96574598000021</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>359600</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12480,11 +12958,17 @@
         <v>67.8243459800002</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>357700</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +12997,17 @@
         <v>70.5418459800002</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>357500</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12546,11 +13036,17 @@
         <v>71.6606731800002</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>357600</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12579,11 +13075,17 @@
         <v>163.0084459800002</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>358800</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12612,11 +13114,17 @@
         <v>281.0893195200002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>359500</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12645,11 +13153,17 @@
         <v>281.0893195200002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>361000</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12678,11 +13192,17 @@
         <v>233.6996278300002</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>361000</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12711,11 +13231,17 @@
         <v>237.3133278300002</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>360200</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12748,7 +13274,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12781,7 +13311,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12814,7 +13348,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12847,7 +13385,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12880,7 +13422,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12913,7 +13459,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12946,7 +13496,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12979,7 +13533,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13012,7 +13570,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13041,11 +13603,17 @@
         <v>166.5160472500002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>360100</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13078,7 +13646,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13111,7 +13683,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13140,11 +13716,17 @@
         <v>215.6766472500002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>361400</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13173,11 +13755,17 @@
         <v>158.2627472500002</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>361100</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13206,11 +13794,17 @@
         <v>158.2627472500002</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>360700</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13239,11 +13833,17 @@
         <v>194.6764472500003</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>360700</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13272,11 +13872,17 @@
         <v>472.3524472500002</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>361000</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13309,7 +13915,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +13952,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +13989,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13408,7 +14026,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13441,7 +14063,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13474,7 +14100,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13507,7 +14137,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13540,7 +14174,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13573,7 +14211,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13606,7 +14248,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13639,7 +14285,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13672,7 +14322,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13705,7 +14359,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13738,7 +14396,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13771,7 +14433,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13804,7 +14470,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13837,7 +14507,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13870,7 +14544,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13903,7 +14581,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13936,7 +14618,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13969,7 +14655,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14002,7 +14692,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14035,7 +14729,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14068,7 +14766,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14101,7 +14803,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14134,7 +14840,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14167,7 +14877,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14200,7 +14914,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14233,7 +14951,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14266,7 +14988,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14299,7 +15025,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +15062,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14365,7 +15099,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +15136,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14431,7 +15173,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14464,7 +15210,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +15247,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +15284,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +15321,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +15358,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +15395,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14662,7 +15432,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14695,7 +15469,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14728,7 +15506,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14761,7 +15543,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14794,7 +15580,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +15617,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +15654,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14893,7 +15691,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +15728,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +15765,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +15802,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +15839,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +15876,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +15913,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +15950,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15157,7 +15987,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15190,7 +16024,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15223,7 +16061,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15256,7 +16098,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15289,7 +16135,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +16172,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +16209,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15388,7 +16246,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15421,7 +16283,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15454,7 +16320,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +16357,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +16394,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +16431,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15586,7 +16468,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +16505,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +16542,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +16579,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +16616,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15751,7 +16653,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15784,7 +16690,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15817,7 +16727,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15850,7 +16764,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +16801,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +16838,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +16875,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +16912,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +16949,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +16986,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +17023,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +17060,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +17097,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +17134,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +17171,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16246,7 +17208,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16279,7 +17245,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +17282,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16345,7 +17319,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16378,7 +17356,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16411,7 +17393,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16444,7 +17430,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16477,7 +17467,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16510,7 +17504,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16543,7 +17541,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16576,7 +17578,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16609,7 +17615,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17652,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16675,7 +17689,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16708,7 +17726,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16741,7 +17763,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16774,7 +17800,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +17837,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +17874,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17911,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16906,7 +17948,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16939,7 +17985,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16972,7 +18022,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17005,7 +18059,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17038,7 +18096,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +18133,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17104,7 +18170,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17137,7 +18207,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +18244,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17203,7 +18281,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17236,7 +18318,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17269,7 +18355,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17302,7 +18392,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17335,7 +18429,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17368,7 +18466,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17401,7 +18503,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17434,7 +18540,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17467,7 +18577,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17500,7 +18614,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17533,7 +18651,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17566,7 +18688,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17599,7 +18725,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17632,7 +18762,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17665,7 +18799,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +18836,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +18873,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +18910,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +18947,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +18984,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +19021,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +19058,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17929,7 +19095,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +19132,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +19169,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +19206,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +19243,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +19280,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +19317,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +19354,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +19391,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +19428,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +19465,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18292,7 +19502,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +19539,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18358,7 +19576,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18391,7 +19613,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18424,7 +19650,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18457,7 +19687,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18490,7 +19724,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18523,7 +19761,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18556,7 +19798,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18589,7 +19835,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18622,7 +19872,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18655,7 +19909,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18688,7 +19946,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18721,7 +19983,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18754,7 +20020,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18787,7 +20057,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18820,7 +20094,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18853,7 +20131,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18886,7 +20168,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18919,7 +20205,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18952,7 +20242,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +20279,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19018,7 +20316,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19051,7 +20353,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19084,7 +20390,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19117,7 +20427,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19150,7 +20464,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +20501,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19216,7 +20538,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19249,7 +20575,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +20612,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +20649,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +20686,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +20723,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +20760,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +20797,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +20834,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +20871,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19546,7 +20908,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19579,7 +20945,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +20982,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19645,7 +21019,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +21056,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19711,7 +21093,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19744,7 +21130,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19777,7 +21167,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19810,7 +21204,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19843,7 +21241,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19876,7 +21278,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19909,7 +21315,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19942,7 +21352,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19975,7 +21389,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20008,7 +21426,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20041,7 +21463,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20074,7 +21500,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20107,7 +21537,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20140,7 +21574,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20173,7 +21611,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20206,7 +21648,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20239,7 +21685,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +21722,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20305,7 +21759,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21796,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20371,7 +21833,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20404,7 +21870,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20437,7 +21907,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20470,7 +21944,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20503,7 +21981,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20536,7 +22018,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20569,7 +22055,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20602,7 +22092,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20635,7 +22129,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20668,7 +22166,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20701,7 +22203,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20734,7 +22240,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20767,7 +22277,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20800,7 +22314,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20833,7 +22351,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20866,7 +22388,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20899,7 +22425,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20932,7 +22462,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20965,7 +22499,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20998,7 +22536,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21031,7 +22573,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21064,7 +22610,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21097,7 +22647,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21130,7 +22684,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21163,7 +22721,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21196,7 +22758,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21229,7 +22795,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21262,7 +22832,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21295,7 +22869,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21328,7 +22906,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21361,7 +22943,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21394,7 +22980,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21427,7 +23017,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21460,7 +23054,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21493,7 +23091,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21526,7 +23128,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21559,7 +23165,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21592,7 +23202,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21625,7 +23239,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21658,7 +23276,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21691,7 +23313,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21724,7 +23350,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21757,7 +23387,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +23424,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21823,7 +23461,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21856,7 +23498,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21885,11 +23531,17 @@
         <v>19.62080617000008</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>361900</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21918,11 +23570,17 @@
         <v>12.47500617000008</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>360700</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21951,11 +23609,17 @@
         <v>12.66901947000008</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>360600</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21984,11 +23648,17 @@
         <v>12.66901947000008</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>360800</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22017,11 +23687,17 @@
         <v>1.127619470000079</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>360800</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22050,11 +23726,17 @@
         <v>-22.22028052999992</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>360600</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +23765,17 @@
         <v>-31.99698052999992</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>360500</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22116,11 +23804,17 @@
         <v>-104.6170805299999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>360300</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22149,11 +23843,17 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>360000</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22182,11 +23882,17 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>361400</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22215,11 +23921,17 @@
         <v>-84.5766805299999</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>361400</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22248,11 +23960,17 @@
         <v>-84.6060805299999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>361400</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +23999,17 @@
         <v>-90.82338052999989</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>361300</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22314,11 +24038,17 @@
         <v>-90.82338052999989</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>360200</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22347,11 +24077,17 @@
         <v>-90.0944805299999</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>360200</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22380,11 +24116,17 @@
         <v>-90.0944805299999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>361300</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22413,11 +24155,17 @@
         <v>-92.76338052999989</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>361300</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22446,11 +24194,17 @@
         <v>-46.66038052999989</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>361200</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22479,11 +24233,17 @@
         <v>-46.66038052999989</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>362200</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22512,11 +24272,17 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>362200</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22545,11 +24311,17 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>362900</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22578,11 +24350,17 @@
         <v>66.4230194700001</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>362900</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22611,11 +24389,17 @@
         <v>250.6044194700001</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>362900</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22644,11 +24428,17 @@
         <v>250.6044194700001</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>363000</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22677,11 +24467,17 @@
         <v>428.4161194700001</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>363000</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22710,11 +24506,17 @@
         <v>569.4888183200001</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>363600</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22747,7 +24549,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22780,7 +24586,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22813,7 +24623,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22846,7 +24660,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22879,7 +24697,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22912,7 +24734,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22945,7 +24771,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22978,7 +24808,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23011,7 +24845,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23044,7 +24882,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23077,7 +24919,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23110,7 +24956,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23143,7 +24993,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23176,7 +25030,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23209,7 +25067,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23242,7 +25104,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23275,7 +25141,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23308,7 +25178,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23341,7 +25215,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23370,11 +25248,17 @@
         <v>605.2933983200001</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>361600</v>
+      </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23407,7 +25291,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23440,7 +25328,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23473,7 +25365,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23506,7 +25402,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23539,7 +25439,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23572,7 +25476,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23605,7 +25513,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23638,7 +25550,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23671,7 +25587,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23704,7 +25624,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23737,7 +25661,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23770,7 +25698,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23803,7 +25735,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23836,7 +25772,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23869,7 +25809,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23902,7 +25846,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23935,7 +25883,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23968,7 +25920,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24001,7 +25957,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24034,7 +25994,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24067,7 +26031,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24100,7 +26068,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24133,7 +26105,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24166,7 +26142,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24199,7 +26179,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24232,7 +26216,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24265,7 +26253,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24298,7 +26290,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24331,7 +26327,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24364,7 +26364,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24397,7 +26401,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24430,7 +26438,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24463,7 +26475,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24496,7 +26512,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24529,7 +26549,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24562,7 +26586,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24595,7 +26623,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24628,7 +26660,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24661,7 +26697,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24694,7 +26734,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24727,7 +26771,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24760,7 +26808,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24793,7 +26845,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24826,7 +26882,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24859,7 +26919,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24892,7 +26956,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24925,7 +26993,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +27030,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24991,7 +27067,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25024,7 +27104,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25057,7 +27141,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25090,7 +27178,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25123,7 +27215,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25156,7 +27252,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25189,7 +27289,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25222,7 +27326,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25255,7 +27363,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25288,7 +27400,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25321,7 +27437,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25354,7 +27474,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25387,7 +27511,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25420,7 +27548,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25453,7 +27585,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25486,7 +27622,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25519,7 +27659,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25552,7 +27696,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25585,7 +27733,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25618,7 +27770,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25651,7 +27807,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25684,7 +27844,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25717,7 +27881,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25750,7 +27918,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25783,7 +27955,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25816,7 +27992,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25849,7 +28029,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25882,7 +28066,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25915,7 +28103,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25948,7 +28140,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25981,7 +28177,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26014,7 +28214,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26047,7 +28251,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26080,7 +28288,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +28325,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26146,7 +28362,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26179,7 +28399,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26212,7 +28436,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26245,7 +28473,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26278,7 +28510,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26311,7 +28547,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26344,7 +28584,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26377,7 +28621,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26410,7 +28658,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26443,7 +28695,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26476,7 +28732,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26509,7 +28769,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26542,7 +28806,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26575,7 +28843,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26608,7 +28880,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26641,7 +28917,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26674,7 +28954,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26707,7 +28991,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26740,7 +29028,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26773,7 +29065,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26806,7 +29102,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26839,7 +29139,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26872,7 +29176,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26905,7 +29213,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26938,7 +29250,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26971,7 +29287,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27004,7 +29324,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27037,7 +29361,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27066,14 +29394,16 @@
         <v>3551.01381402</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="n">
-        <v>1</v>
-      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="inlineStr"/>
     </row>
     <row r="800">
@@ -27099,7 +29429,7 @@
         <v>3562.94701402</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27132,7 +29462,7 @@
         <v>3562.93641402</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27165,7 +29495,7 @@
         <v>3532.70931402</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27198,7 +29528,7 @@
         <v>3515.35272299</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27231,7 +29561,7 @@
         <v>3515.50552299</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27264,7 +29594,7 @@
         <v>3508.00732299</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27297,7 +29627,7 @@
         <v>3522.37072299</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27363,7 +29693,7 @@
         <v>3530.19792299</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27396,7 +29726,7 @@
         <v>3712.09933196</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27429,7 +29759,7 @@
         <v>3735.31203196</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27462,7 +29792,7 @@
         <v>3731.35759764</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27495,7 +29825,7 @@
         <v>3731.35759764</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27528,7 +29858,7 @@
         <v>3704.48779764</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27561,7 +29891,7 @@
         <v>3733.68359764</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27594,7 +29924,7 @@
         <v>3733.68359764</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27627,7 +29957,7 @@
         <v>3734.59189764</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27660,7 +29990,7 @@
         <v>3744.41869764</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27693,7 +30023,7 @@
         <v>4295.03051205</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27726,7 +30056,7 @@
         <v>4578.31281205</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27759,7 +30089,7 @@
         <v>4481.876512049999</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27792,7 +30122,7 @@
         <v>4575.806949749999</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27825,7 +30155,7 @@
         <v>4756.777929149999</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27858,7 +30188,7 @@
         <v>4557.462508549999</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27891,7 +30221,7 @@
         <v>4563.213408549999</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27924,7 +30254,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27957,7 +30287,7 @@
         <v>4611.192608549999</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27990,7 +30320,7 @@
         <v>4693.390808549999</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28023,7 +30353,7 @@
         <v>4382.842808549999</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28056,7 +30386,7 @@
         <v>4151.830508549999</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28089,7 +30419,7 @@
         <v>4127.614708549999</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28122,7 +30452,7 @@
         <v>4045.654508549999</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28155,7 +30485,7 @@
         <v>4219.653834839999</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28188,7 +30518,7 @@
         <v>4260.726134839999</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28221,7 +30551,7 @@
         <v>4225.498434839998</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28254,7 +30584,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28287,7 +30617,7 @@
         <v>4212.808114909998</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28320,7 +30650,7 @@
         <v>4153.053414909998</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28353,7 +30683,7 @@
         <v>4178.696814909998</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28386,7 +30716,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28419,7 +30749,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28452,7 +30782,7 @@
         <v>4248.790114909998</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28485,7 +30815,7 @@
         <v>4835.639014909998</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28518,7 +30848,7 @@
         <v>4775.585414909998</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28551,7 +30881,7 @@
         <v>4812.412614909998</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28584,7 +30914,7 @@
         <v>4652.277914909998</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28617,7 +30947,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28650,7 +30980,7 @@
         <v>4618.830114909998</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28683,7 +31013,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28716,7 +31046,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28749,7 +31079,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28782,7 +31112,7 @@
         <v>4636.072314909998</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28815,7 +31145,7 @@
         <v>4844.445514909998</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28848,7 +31178,7 @@
         <v>4742.010114909997</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28881,7 +31211,7 @@
         <v>4768.064114909997</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28914,7 +31244,7 @@
         <v>4793.170914909997</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28947,7 +31277,7 @@
         <v>4662.737372199997</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28980,7 +31310,7 @@
         <v>4642.992472199997</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -36735,7 +39065,7 @@
         <v>1927.686726429996</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -36768,7 +39098,7 @@
         <v>1935.735826429996</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -36801,7 +39131,7 @@
         <v>1958.808126979996</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
